--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF Diff-in-DiffDAGOLS 2006-12-31 to 2008-09-30 orig0.3.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF Diff-in-DiffDAGOLS 2006-12-31 to 2008-09-30 orig0.3.xlsx
@@ -16,52 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>FFR</t>
+  </si>
+  <si>
     <t>LF</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>A Lag</t>
-  </si>
-  <si>
     <t>C Lag</t>
   </si>
   <si>
+    <t>FFR Lag</t>
+  </si>
+  <si>
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.026</t>
-  </si>
-  <si>
-    <t>-0.155</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.409***</t>
-  </si>
-  <si>
-    <t>-0.606***</t>
-  </si>
-  <si>
-    <t>0.014**</t>
-  </si>
-  <si>
-    <t>-2.693</t>
-  </si>
-  <si>
-    <t>23.296**</t>
-  </si>
-  <si>
-    <t>0.829**</t>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>1.6***</t>
+  </si>
+  <si>
+    <t>3.53*</t>
+  </si>
+  <si>
+    <t>-6.09</t>
+  </si>
+  <si>
+    <t>0.5***</t>
+  </si>
+  <si>
+    <t>0.54*</t>
   </si>
 </sst>
 </file>
